--- a/biology/Histoire de la zoologie et de la botanique/Zoologie_du_Voyage_du_H.M.S._Beagle/Zoologie_du_Voyage_du_H.M.S._Beagle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Zoologie_du_Voyage_du_H.M.S._Beagle/Zoologie_du_Voyage_du_H.M.S._Beagle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zoologie du Voyage du H.M.S. Beagle dont le titre original est The Zoology of the Voyage of H.M.S. Beagle Under the Command of Captain Fitzroy, R.N., during the Years 1832 to 1836 est un livre en 5 parties tirés en dix-neuf exemplaires, parus entre février 1838 et octobre 1843, au fur et à mesure de leur conception. Il a été écrit par divers auteurs, mais édité et dirigé par Charles Darwin, qui publia ses descriptions expertes des collections qu'il avait faites durant le second voyage du Beagle.
